--- a/natmiOut/OldD2/LR-pairs_lrc2p/Bmp8a-Acvr2a.xlsx
+++ b/natmiOut/OldD2/LR-pairs_lrc2p/Bmp8a-Acvr2a.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="164" uniqueCount="28">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -82,6 +82,12 @@
     <t>FAPs</t>
   </si>
   <si>
+    <t>M1</t>
+  </si>
+  <si>
+    <t>M2</t>
+  </si>
+  <si>
     <t>Neutro</t>
   </si>
   <si>
@@ -92,12 +98,6 @@
   </si>
   <si>
     <t>Acvr2a</t>
-  </si>
-  <si>
-    <t>M1</t>
-  </si>
-  <si>
-    <t>M2</t>
   </si>
 </sst>
 </file>
@@ -455,7 +455,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T25"/>
+  <dimension ref="A1:T37"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -528,61 +528,61 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C2" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D2" t="s">
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>0.902467888902425</v>
+        <v>0.9146825000000001</v>
       </c>
       <c r="H2">
-        <v>0.902467888902425</v>
+        <v>1.829365</v>
       </c>
       <c r="I2">
-        <v>0.4560640709233947</v>
+        <v>0.3844151897968113</v>
       </c>
       <c r="J2">
-        <v>0.4560640709233947</v>
+        <v>0.3128975648803649</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>10.6444693044665</v>
+        <v>10.6794795</v>
       </c>
       <c r="N2">
-        <v>10.6444693044665</v>
+        <v>21.358959</v>
       </c>
       <c r="O2">
-        <v>0.1476353775197148</v>
+        <v>0.1386817475209803</v>
       </c>
       <c r="P2">
-        <v>0.1476353775197148</v>
+        <v>0.1052706227093344</v>
       </c>
       <c r="Q2">
-        <v>9.606291741688548</v>
+        <v>9.76833300775875</v>
       </c>
       <c r="R2">
-        <v>9.606291741688548</v>
+        <v>39.073332031035</v>
       </c>
       <c r="S2">
-        <v>0.06733119128395337</v>
+        <v>0.05331137029463109</v>
       </c>
       <c r="T2">
-        <v>0.06733119128395337</v>
+        <v>0.03293892149919037</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -590,61 +590,61 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C3" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D3" t="s">
         <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>0.902467888902425</v>
+        <v>0.9146825000000001</v>
       </c>
       <c r="H3">
-        <v>0.902467888902425</v>
+        <v>1.829365</v>
       </c>
       <c r="I3">
-        <v>0.4560640709233947</v>
+        <v>0.3844151897968113</v>
       </c>
       <c r="J3">
-        <v>0.4560640709233947</v>
+        <v>0.3128975648803649</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>24.6712015127492</v>
+        <v>26.32069366666667</v>
       </c>
       <c r="N3">
-        <v>24.6712015127492</v>
+        <v>78.962081</v>
       </c>
       <c r="O3">
-        <v>0.3421816574426433</v>
+        <v>0.3417956646349414</v>
       </c>
       <c r="P3">
-        <v>0.3421816574426433</v>
+        <v>0.3891756820777128</v>
       </c>
       <c r="Q3">
-        <v>22.26496714589709</v>
+        <v>24.07507788476083</v>
       </c>
       <c r="R3">
-        <v>22.26496714589709</v>
+        <v>144.450467308565</v>
       </c>
       <c r="S3">
-        <v>0.1560567596886064</v>
+        <v>0.1313914452923682</v>
       </c>
       <c r="T3">
-        <v>0.1560567596886064</v>
+        <v>0.1217721232327714</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -652,61 +652,61 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C4" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D4" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>0.902467888902425</v>
+        <v>0.9146825000000001</v>
       </c>
       <c r="H4">
-        <v>0.902467888902425</v>
+        <v>1.829365</v>
       </c>
       <c r="I4">
-        <v>0.4560640709233947</v>
+        <v>0.3844151897968113</v>
       </c>
       <c r="J4">
-        <v>0.4560640709233947</v>
+        <v>0.3128975648803649</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>5.64877581538767</v>
+        <v>5.92768</v>
       </c>
       <c r="N4">
-        <v>5.64877581538767</v>
+        <v>17.78304</v>
       </c>
       <c r="O4">
-        <v>0.07834671003081929</v>
+        <v>0.07697575721224656</v>
       </c>
       <c r="P4">
-        <v>0.07834671003081929</v>
+        <v>0.08764620478296728</v>
       </c>
       <c r="Q4">
-        <v>5.097838784995985</v>
+        <v>5.4219451616</v>
       </c>
       <c r="R4">
-        <v>5.097838784995985</v>
+        <v>32.5316709696</v>
       </c>
       <c r="S4">
-        <v>0.0357311195201102</v>
+        <v>0.02959065031849903</v>
       </c>
       <c r="T4">
-        <v>0.0357311195201102</v>
+        <v>0.02742428404759625</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -714,61 +714,61 @@
         <v>20</v>
       </c>
       <c r="B5" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C5" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D5" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>0.902467888902425</v>
+        <v>0.9146825000000001</v>
       </c>
       <c r="H5">
-        <v>0.902467888902425</v>
+        <v>1.829365</v>
       </c>
       <c r="I5">
-        <v>0.4560640709233947</v>
+        <v>0.3844151897968113</v>
       </c>
       <c r="J5">
-        <v>0.4560640709233947</v>
+        <v>0.3128975648803649</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>5.98816026829204</v>
+        <v>6.071436333333334</v>
       </c>
       <c r="N5">
-        <v>5.98816026829204</v>
+        <v>18.214309</v>
       </c>
       <c r="O5">
-        <v>0.08305386361412043</v>
+        <v>0.07884255039480526</v>
       </c>
       <c r="P5">
-        <v>0.08305386361412043</v>
+        <v>0.08977177448817772</v>
       </c>
       <c r="Q5">
-        <v>5.404122355734896</v>
+        <v>5.553436563964167</v>
       </c>
       <c r="R5">
-        <v>5.404122355734896</v>
+        <v>33.320619383785</v>
       </c>
       <c r="S5">
-        <v>0.03787788314577217</v>
+        <v>0.03030827397408372</v>
       </c>
       <c r="T5">
-        <v>0.03787788314577217</v>
+        <v>0.02808936963234008</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -776,61 +776,61 @@
         <v>20</v>
       </c>
       <c r="B6" t="s">
+        <v>26</v>
+      </c>
+      <c r="C6" t="s">
+        <v>27</v>
+      </c>
+      <c r="D6" t="s">
         <v>24</v>
       </c>
-      <c r="C6" t="s">
-        <v>25</v>
-      </c>
-      <c r="D6" t="s">
-        <v>22</v>
-      </c>
       <c r="E6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>0.902467888902425</v>
+        <v>0.9146825000000001</v>
       </c>
       <c r="H6">
-        <v>0.902467888902425</v>
+        <v>1.829365</v>
       </c>
       <c r="I6">
-        <v>0.4560640709233947</v>
+        <v>0.3844151897968113</v>
       </c>
       <c r="J6">
-        <v>0.4560640709233947</v>
+        <v>0.3128975648803649</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>9.951221760547551</v>
+        <v>10.56170766666667</v>
       </c>
       <c r="N6">
-        <v>9.951221760547551</v>
+        <v>31.685123</v>
       </c>
       <c r="O6">
-        <v>0.1380202562831734</v>
+        <v>0.1371523842542203</v>
       </c>
       <c r="P6">
-        <v>0.1380202562831734</v>
+        <v>0.1561645691080663</v>
       </c>
       <c r="Q6">
-        <v>8.980658094241221</v>
+        <v>9.660609172815832</v>
       </c>
       <c r="R6">
-        <v>8.980658094241221</v>
+        <v>57.963655036895</v>
       </c>
       <c r="S6">
-        <v>0.06294607995039429</v>
+        <v>0.05272345982417127</v>
       </c>
       <c r="T6">
-        <v>0.06294607995039429</v>
+        <v>0.04886351339450539</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -838,61 +838,61 @@
         <v>20</v>
       </c>
       <c r="B7" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C7" t="s">
+        <v>27</v>
+      </c>
+      <c r="D7" t="s">
         <v>25</v>
       </c>
-      <c r="D7" t="s">
-        <v>23</v>
-      </c>
       <c r="E7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>0.902467888902425</v>
+        <v>0.9146825000000001</v>
       </c>
       <c r="H7">
-        <v>0.902467888902425</v>
+        <v>1.829365</v>
       </c>
       <c r="I7">
-        <v>0.4560640709233947</v>
+        <v>0.3844151897968113</v>
       </c>
       <c r="J7">
-        <v>0.4560640709233947</v>
+        <v>0.3128975648803649</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>15.1958908183617</v>
+        <v>17.446105</v>
       </c>
       <c r="N7">
-        <v>15.1958908183617</v>
+        <v>34.89221</v>
       </c>
       <c r="O7">
-        <v>0.2107621351095285</v>
+        <v>0.2265518959828062</v>
       </c>
       <c r="P7">
-        <v>0.2107621351095285</v>
+        <v>0.1719711468337415</v>
       </c>
       <c r="Q7">
-        <v>13.71380350683863</v>
+        <v>15.9576469366625</v>
       </c>
       <c r="R7">
-        <v>13.71380350683863</v>
+        <v>63.83058774665</v>
       </c>
       <c r="S7">
-        <v>0.09612103733455812</v>
+        <v>0.0870899900930579</v>
       </c>
       <c r="T7">
-        <v>0.09612103733455812</v>
+        <v>0.0538093530739614</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -900,61 +900,61 @@
         <v>21</v>
       </c>
       <c r="B8" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C8" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D8" t="s">
         <v>20</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>0.217375830129206</v>
+        <v>0.2215323333333334</v>
       </c>
       <c r="H8">
-        <v>0.217375830129206</v>
+        <v>0.6645970000000001</v>
       </c>
       <c r="I8">
-        <v>0.1098513390095775</v>
+        <v>0.0931037753148921</v>
       </c>
       <c r="J8">
-        <v>0.1098513390095775</v>
+        <v>0.1136737517809709</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>10.6444693044665</v>
+        <v>10.6794795</v>
       </c>
       <c r="N8">
-        <v>10.6444693044665</v>
+        <v>21.358959</v>
       </c>
       <c r="O8">
-        <v>0.1476353775197148</v>
+        <v>0.1386817475209803</v>
       </c>
       <c r="P8">
-        <v>0.1476353775197148</v>
+        <v>0.1052706227093344</v>
       </c>
       <c r="Q8">
-        <v>2.313850351343258</v>
+        <v>2.3658500124205</v>
       </c>
       <c r="R8">
-        <v>2.313850351343258</v>
+        <v>14.195100074523</v>
       </c>
       <c r="S8">
-        <v>0.01621794390572515</v>
+        <v>0.01291179426146994</v>
       </c>
       <c r="T8">
-        <v>0.01621794390572515</v>
+        <v>0.01196650663568912</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -962,61 +962,61 @@
         <v>21</v>
       </c>
       <c r="B9" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C9" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D9" t="s">
         <v>21</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>0.217375830129206</v>
+        <v>0.2215323333333334</v>
       </c>
       <c r="H9">
-        <v>0.217375830129206</v>
+        <v>0.6645970000000001</v>
       </c>
       <c r="I9">
-        <v>0.1098513390095775</v>
+        <v>0.0931037753148921</v>
       </c>
       <c r="J9">
-        <v>0.1098513390095775</v>
+        <v>0.1136737517809709</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>24.6712015127492</v>
+        <v>26.32069366666667</v>
       </c>
       <c r="N9">
-        <v>24.6712015127492</v>
+        <v>78.962081</v>
       </c>
       <c r="O9">
-        <v>0.3421816574426433</v>
+        <v>0.3417956646349414</v>
       </c>
       <c r="P9">
-        <v>0.3421816574426433</v>
+        <v>0.3891756820777128</v>
       </c>
       <c r="Q9">
-        <v>5.36292290911878</v>
+        <v>5.830884682928557</v>
       </c>
       <c r="R9">
-        <v>5.36292290911878</v>
+        <v>52.47796214635701</v>
       </c>
       <c r="S9">
-        <v>0.03758911325459092</v>
+        <v>0.03182246676377579</v>
       </c>
       <c r="T9">
-        <v>0.03758911325459092</v>
+        <v>0.04423905988369198</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1024,61 +1024,61 @@
         <v>21</v>
       </c>
       <c r="B10" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C10" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D10" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>0.217375830129206</v>
+        <v>0.2215323333333334</v>
       </c>
       <c r="H10">
-        <v>0.217375830129206</v>
+        <v>0.6645970000000001</v>
       </c>
       <c r="I10">
-        <v>0.1098513390095775</v>
+        <v>0.0931037753148921</v>
       </c>
       <c r="J10">
-        <v>0.1098513390095775</v>
+        <v>0.1136737517809709</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>5.64877581538767</v>
+        <v>5.92768</v>
       </c>
       <c r="N10">
-        <v>5.64877581538767</v>
+        <v>17.78304</v>
       </c>
       <c r="O10">
-        <v>0.07834671003081929</v>
+        <v>0.07697575721224656</v>
       </c>
       <c r="P10">
-        <v>0.07834671003081929</v>
+        <v>0.08764620478296728</v>
       </c>
       <c r="Q10">
-        <v>1.227907332083677</v>
+        <v>1.313172781653333</v>
       </c>
       <c r="R10">
-        <v>1.227907332083677</v>
+        <v>11.81855503488</v>
       </c>
       <c r="S10">
-        <v>0.008606491003880595</v>
+        <v>0.007166733604182689</v>
       </c>
       <c r="T10">
-        <v>0.008606491003880595</v>
+        <v>0.009963072927043171</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1086,61 +1086,61 @@
         <v>21</v>
       </c>
       <c r="B11" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C11" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D11" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="E11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F11">
         <v>1</v>
       </c>
       <c r="G11">
-        <v>0.217375830129206</v>
+        <v>0.2215323333333334</v>
       </c>
       <c r="H11">
-        <v>0.217375830129206</v>
+        <v>0.6645970000000001</v>
       </c>
       <c r="I11">
-        <v>0.1098513390095775</v>
+        <v>0.0931037753148921</v>
       </c>
       <c r="J11">
-        <v>0.1098513390095775</v>
+        <v>0.1136737517809709</v>
       </c>
       <c r="K11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L11">
         <v>1</v>
       </c>
       <c r="M11">
-        <v>5.98816026829204</v>
+        <v>6.071436333333334</v>
       </c>
       <c r="N11">
-        <v>5.98816026829204</v>
+        <v>18.214309</v>
       </c>
       <c r="O11">
-        <v>0.08305386361412043</v>
+        <v>0.07884255039480526</v>
       </c>
       <c r="P11">
-        <v>0.08305386361412043</v>
+        <v>0.08977177448817772</v>
       </c>
       <c r="Q11">
-        <v>1.301681309266711</v>
+        <v>1.345019457608111</v>
       </c>
       <c r="R11">
-        <v>1.301681309266711</v>
+        <v>12.105175118473</v>
       </c>
       <c r="S11">
-        <v>0.009123578127929955</v>
+        <v>0.007340539097211006</v>
       </c>
       <c r="T11">
-        <v>0.009123578127929955</v>
+        <v>0.01020469441010641</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1148,61 +1148,61 @@
         <v>21</v>
       </c>
       <c r="B12" t="s">
+        <v>26</v>
+      </c>
+      <c r="C12" t="s">
+        <v>27</v>
+      </c>
+      <c r="D12" t="s">
         <v>24</v>
       </c>
-      <c r="C12" t="s">
-        <v>25</v>
-      </c>
-      <c r="D12" t="s">
-        <v>22</v>
-      </c>
       <c r="E12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F12">
         <v>1</v>
       </c>
       <c r="G12">
-        <v>0.217375830129206</v>
+        <v>0.2215323333333334</v>
       </c>
       <c r="H12">
-        <v>0.217375830129206</v>
+        <v>0.6645970000000001</v>
       </c>
       <c r="I12">
-        <v>0.1098513390095775</v>
+        <v>0.0931037753148921</v>
       </c>
       <c r="J12">
-        <v>0.1098513390095775</v>
+        <v>0.1136737517809709</v>
       </c>
       <c r="K12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L12">
         <v>1</v>
       </c>
       <c r="M12">
-        <v>9.951221760547551</v>
+        <v>10.56170766666667</v>
       </c>
       <c r="N12">
-        <v>9.951221760547551</v>
+        <v>31.685123</v>
       </c>
       <c r="O12">
-        <v>0.1380202562831734</v>
+        <v>0.1371523842542203</v>
       </c>
       <c r="P12">
-        <v>0.1380202562831734</v>
+        <v>0.1561645691080663</v>
       </c>
       <c r="Q12">
-        <v>2.163155090998842</v>
+        <v>2.339759743381222</v>
       </c>
       <c r="R12">
-        <v>2.163155090998842</v>
+        <v>21.057837690431</v>
       </c>
       <c r="S12">
-        <v>0.01516170996315165</v>
+        <v>0.01276940476750667</v>
       </c>
       <c r="T12">
-        <v>0.01516170996315165</v>
+        <v>0.01775181246577261</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1210,61 +1210,61 @@
         <v>21</v>
       </c>
       <c r="B13" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C13" t="s">
+        <v>27</v>
+      </c>
+      <c r="D13" t="s">
         <v>25</v>
       </c>
-      <c r="D13" t="s">
-        <v>23</v>
-      </c>
       <c r="E13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F13">
         <v>1</v>
       </c>
       <c r="G13">
-        <v>0.217375830129206</v>
+        <v>0.2215323333333334</v>
       </c>
       <c r="H13">
-        <v>0.217375830129206</v>
+        <v>0.6645970000000001</v>
       </c>
       <c r="I13">
-        <v>0.1098513390095775</v>
+        <v>0.0931037753148921</v>
       </c>
       <c r="J13">
-        <v>0.1098513390095775</v>
+        <v>0.1136737517809709</v>
       </c>
       <c r="K13">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L13">
         <v>1</v>
       </c>
       <c r="M13">
-        <v>15.1958908183617</v>
+        <v>17.446105</v>
       </c>
       <c r="N13">
-        <v>15.1958908183617</v>
+        <v>34.89221</v>
       </c>
       <c r="O13">
-        <v>0.2107621351095285</v>
+        <v>0.2265518959828062</v>
       </c>
       <c r="P13">
-        <v>0.2107621351095285</v>
+        <v>0.1719711468337415</v>
       </c>
       <c r="Q13">
-        <v>3.303219381194154</v>
+        <v>3.864876348228333</v>
       </c>
       <c r="R13">
-        <v>3.303219381194154</v>
+        <v>23.18925808937</v>
       </c>
       <c r="S13">
-        <v>0.02315250275429919</v>
+        <v>0.021092836820746</v>
       </c>
       <c r="T13">
-        <v>0.02315250275429919</v>
+        <v>0.01954860545866764</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1272,61 +1272,61 @@
         <v>22</v>
       </c>
       <c r="B14" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C14" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D14" t="s">
         <v>20</v>
       </c>
       <c r="E14">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F14">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G14">
-        <v>0.5195772889052001</v>
+        <v>0.1266516666666667</v>
       </c>
       <c r="H14">
-        <v>0.5195772889052001</v>
+        <v>0.379955</v>
       </c>
       <c r="I14">
-        <v>0.2625694902293266</v>
+        <v>0.05322811410489338</v>
       </c>
       <c r="J14">
-        <v>0.2625694902293266</v>
+        <v>0.06498812115904647</v>
       </c>
       <c r="K14">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L14">
         <v>1</v>
       </c>
       <c r="M14">
-        <v>10.6444693044665</v>
+        <v>10.6794795</v>
       </c>
       <c r="N14">
-        <v>10.6444693044665</v>
+        <v>21.358959</v>
       </c>
       <c r="O14">
-        <v>0.1476353775197148</v>
+        <v>0.1386817475209803</v>
       </c>
       <c r="P14">
-        <v>0.1476353775197148</v>
+        <v>0.1052706227093344</v>
       </c>
       <c r="Q14">
-        <v>5.530624503049325</v>
+        <v>1.3525738778075</v>
       </c>
       <c r="R14">
-        <v>5.530624503049325</v>
+        <v>8.115443266844999</v>
       </c>
       <c r="S14">
-        <v>0.0387645458151657</v>
+        <v>0.007381767881312751</v>
       </c>
       <c r="T14">
-        <v>0.0387645458151657</v>
+        <v>0.006841339983122492</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1334,61 +1334,61 @@
         <v>22</v>
       </c>
       <c r="B15" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C15" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D15" t="s">
         <v>21</v>
       </c>
       <c r="E15">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F15">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G15">
-        <v>0.5195772889052001</v>
+        <v>0.1266516666666667</v>
       </c>
       <c r="H15">
-        <v>0.5195772889052001</v>
+        <v>0.379955</v>
       </c>
       <c r="I15">
-        <v>0.2625694902293266</v>
+        <v>0.05322811410489338</v>
       </c>
       <c r="J15">
-        <v>0.2625694902293266</v>
+        <v>0.06498812115904647</v>
       </c>
       <c r="K15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L15">
         <v>1</v>
       </c>
       <c r="M15">
-        <v>24.6712015127492</v>
+        <v>26.32069366666667</v>
       </c>
       <c r="N15">
-        <v>24.6712015127492</v>
+        <v>78.962081</v>
       </c>
       <c r="O15">
-        <v>0.3421816574426433</v>
+        <v>0.3417956646349414</v>
       </c>
       <c r="P15">
-        <v>0.3421816574426433</v>
+        <v>0.3891756820777128</v>
       </c>
       <c r="Q15">
-        <v>12.8185959960281</v>
+        <v>3.333559720706111</v>
       </c>
       <c r="R15">
-        <v>12.8185959960281</v>
+        <v>30.002037486355</v>
       </c>
       <c r="S15">
-        <v>0.0898464633605409</v>
+        <v>0.01819313863774653</v>
       </c>
       <c r="T15">
-        <v>0.0898464633605409</v>
+        <v>0.02529179637902095</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1396,61 +1396,61 @@
         <v>22</v>
       </c>
       <c r="B16" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C16" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D16" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="E16">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F16">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G16">
-        <v>0.5195772889052001</v>
+        <v>0.1266516666666667</v>
       </c>
       <c r="H16">
-        <v>0.5195772889052001</v>
+        <v>0.379955</v>
       </c>
       <c r="I16">
-        <v>0.2625694902293266</v>
+        <v>0.05322811410489338</v>
       </c>
       <c r="J16">
-        <v>0.2625694902293266</v>
+        <v>0.06498812115904647</v>
       </c>
       <c r="K16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L16">
         <v>1</v>
       </c>
       <c r="M16">
-        <v>5.64877581538767</v>
+        <v>5.92768</v>
       </c>
       <c r="N16">
-        <v>5.64877581538767</v>
+        <v>17.78304</v>
       </c>
       <c r="O16">
-        <v>0.07834671003081929</v>
+        <v>0.07697575721224656</v>
       </c>
       <c r="P16">
-        <v>0.07834671003081929</v>
+        <v>0.08764620478296728</v>
       </c>
       <c r="Q16">
-        <v>2.934975623792386</v>
+        <v>0.7507505514666666</v>
       </c>
       <c r="R16">
-        <v>2.934975623792386</v>
+        <v>6.7567549632</v>
       </c>
       <c r="S16">
-        <v>0.02057145571393709</v>
+        <v>0.004097274388204029</v>
       </c>
       <c r="T16">
-        <v>0.02057145571393709</v>
+        <v>0.005695962175566075</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1458,61 +1458,61 @@
         <v>22</v>
       </c>
       <c r="B17" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C17" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D17" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="E17">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F17">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G17">
-        <v>0.5195772889052001</v>
+        <v>0.1266516666666667</v>
       </c>
       <c r="H17">
-        <v>0.5195772889052001</v>
+        <v>0.379955</v>
       </c>
       <c r="I17">
-        <v>0.2625694902293266</v>
+        <v>0.05322811410489338</v>
       </c>
       <c r="J17">
-        <v>0.2625694902293266</v>
+        <v>0.06498812115904647</v>
       </c>
       <c r="K17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L17">
         <v>1</v>
       </c>
       <c r="M17">
-        <v>5.98816026829204</v>
+        <v>6.071436333333334</v>
       </c>
       <c r="N17">
-        <v>5.98816026829204</v>
+        <v>18.214309</v>
       </c>
       <c r="O17">
-        <v>0.08305386361412043</v>
+        <v>0.07884255039480526</v>
       </c>
       <c r="P17">
-        <v>0.08305386361412043</v>
+        <v>0.08977177448817772</v>
       </c>
       <c r="Q17">
-        <v>3.111312077729013</v>
+        <v>0.7689575306772223</v>
       </c>
       <c r="R17">
-        <v>3.111312077729013</v>
+        <v>6.920617776095</v>
       </c>
       <c r="S17">
-        <v>0.02180741063073562</v>
+        <v>0.004196640268735501</v>
       </c>
       <c r="T17">
-        <v>0.02180741063073562</v>
+        <v>0.00583409895710029</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1520,61 +1520,61 @@
         <v>22</v>
       </c>
       <c r="B18" t="s">
+        <v>26</v>
+      </c>
+      <c r="C18" t="s">
+        <v>27</v>
+      </c>
+      <c r="D18" t="s">
         <v>24</v>
       </c>
-      <c r="C18" t="s">
-        <v>25</v>
-      </c>
-      <c r="D18" t="s">
-        <v>22</v>
-      </c>
       <c r="E18">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F18">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G18">
-        <v>0.5195772889052001</v>
+        <v>0.1266516666666667</v>
       </c>
       <c r="H18">
-        <v>0.5195772889052001</v>
+        <v>0.379955</v>
       </c>
       <c r="I18">
-        <v>0.2625694902293266</v>
+        <v>0.05322811410489338</v>
       </c>
       <c r="J18">
-        <v>0.2625694902293266</v>
+        <v>0.06498812115904647</v>
       </c>
       <c r="K18">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L18">
         <v>1</v>
       </c>
       <c r="M18">
-        <v>9.951221760547551</v>
+        <v>10.56170766666667</v>
       </c>
       <c r="N18">
-        <v>9.951221760547551</v>
+        <v>31.685123</v>
       </c>
       <c r="O18">
-        <v>0.1380202562831734</v>
+        <v>0.1371523842542203</v>
       </c>
       <c r="P18">
-        <v>0.1380202562831734</v>
+        <v>0.1561645691080663</v>
       </c>
       <c r="Q18">
-        <v>5.170428823639728</v>
+        <v>1.337657878829444</v>
       </c>
       <c r="R18">
-        <v>5.170428823639728</v>
+        <v>12.038920909465</v>
       </c>
       <c r="S18">
-        <v>0.03623990833359384</v>
+        <v>0.007300362758841819</v>
       </c>
       <c r="T18">
-        <v>0.03623990833359384</v>
+        <v>0.01014884193794529</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1582,61 +1582,61 @@
         <v>22</v>
       </c>
       <c r="B19" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C19" t="s">
+        <v>27</v>
+      </c>
+      <c r="D19" t="s">
         <v>25</v>
       </c>
-      <c r="D19" t="s">
-        <v>23</v>
-      </c>
       <c r="E19">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F19">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G19">
-        <v>0.5195772889052001</v>
+        <v>0.1266516666666667</v>
       </c>
       <c r="H19">
-        <v>0.5195772889052001</v>
+        <v>0.379955</v>
       </c>
       <c r="I19">
-        <v>0.2625694902293266</v>
+        <v>0.05322811410489338</v>
       </c>
       <c r="J19">
-        <v>0.2625694902293266</v>
+        <v>0.06498812115904647</v>
       </c>
       <c r="K19">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L19">
         <v>1</v>
       </c>
       <c r="M19">
-        <v>15.1958908183617</v>
+        <v>17.446105</v>
       </c>
       <c r="N19">
-        <v>15.1958908183617</v>
+        <v>34.89221</v>
       </c>
       <c r="O19">
-        <v>0.2107621351095285</v>
+        <v>0.2265518959828062</v>
       </c>
       <c r="P19">
-        <v>0.2107621351095285</v>
+        <v>0.1719711468337415</v>
       </c>
       <c r="Q19">
-        <v>7.895439753903794</v>
+        <v>2.209578275091666</v>
       </c>
       <c r="R19">
-        <v>7.895439753903794</v>
+        <v>13.25746965055</v>
       </c>
       <c r="S19">
-        <v>0.05533970637535336</v>
+        <v>0.01205893017005275</v>
       </c>
       <c r="T19">
-        <v>0.05533970637535336</v>
+        <v>0.01117608172629136</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1644,10 +1644,10 @@
         <v>23</v>
       </c>
       <c r="B20" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C20" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D20" t="s">
         <v>20</v>
@@ -1656,49 +1656,49 @@
         <v>1</v>
       </c>
       <c r="F20">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G20">
-        <v>0.339397203011457</v>
+        <v>0.1966663333333334</v>
       </c>
       <c r="H20">
-        <v>0.339397203011457</v>
+        <v>0.5899990000000001</v>
       </c>
       <c r="I20">
-        <v>0.1715150998377012</v>
+        <v>0.08265329866371805</v>
       </c>
       <c r="J20">
-        <v>0.1715150998377012</v>
+        <v>0.1009143885347377</v>
       </c>
       <c r="K20">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L20">
         <v>1</v>
       </c>
       <c r="M20">
-        <v>10.6444693044665</v>
+        <v>10.6794795</v>
       </c>
       <c r="N20">
-        <v>10.6444693044665</v>
+        <v>21.358959</v>
       </c>
       <c r="O20">
-        <v>0.1476353775197148</v>
+        <v>0.1386817475209803</v>
       </c>
       <c r="P20">
-        <v>0.1476353775197148</v>
+        <v>0.1052706227093344</v>
       </c>
       <c r="Q20">
-        <v>3.612703109477239</v>
+        <v>2.1002940751735</v>
       </c>
       <c r="R20">
-        <v>3.612703109477239</v>
+        <v>12.601764451041</v>
       </c>
       <c r="S20">
-        <v>0.02532169651487061</v>
+        <v>0.01146250389705792</v>
       </c>
       <c r="T20">
-        <v>0.02532169651487061</v>
+        <v>0.01062332052138355</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1706,10 +1706,10 @@
         <v>23</v>
       </c>
       <c r="B21" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C21" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D21" t="s">
         <v>21</v>
@@ -1718,49 +1718,49 @@
         <v>1</v>
       </c>
       <c r="F21">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G21">
-        <v>0.339397203011457</v>
+        <v>0.1966663333333334</v>
       </c>
       <c r="H21">
-        <v>0.339397203011457</v>
+        <v>0.5899990000000001</v>
       </c>
       <c r="I21">
-        <v>0.1715150998377012</v>
+        <v>0.08265329866371805</v>
       </c>
       <c r="J21">
-        <v>0.1715150998377012</v>
+        <v>0.1009143885347377</v>
       </c>
       <c r="K21">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L21">
         <v>1</v>
       </c>
       <c r="M21">
-        <v>24.6712015127492</v>
+        <v>26.32069366666667</v>
       </c>
       <c r="N21">
-        <v>24.6712015127492</v>
+        <v>78.962081</v>
       </c>
       <c r="O21">
-        <v>0.3421816574426433</v>
+        <v>0.3417956646349414</v>
       </c>
       <c r="P21">
-        <v>0.3421816574426433</v>
+        <v>0.3891756820777128</v>
       </c>
       <c r="Q21">
-        <v>8.373336788359104</v>
+        <v>5.176394314213223</v>
       </c>
       <c r="R21">
-        <v>8.373336788359104</v>
+        <v>46.587548827919</v>
       </c>
       <c r="S21">
-        <v>0.05868932113890505</v>
+        <v>0.02825053915103582</v>
       </c>
       <c r="T21">
-        <v>0.05868932113890505</v>
+        <v>0.03927342598946187</v>
       </c>
     </row>
     <row r="22" spans="1:20">
@@ -1768,61 +1768,61 @@
         <v>23</v>
       </c>
       <c r="B22" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C22" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D22" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="E22">
         <v>1</v>
       </c>
       <c r="F22">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G22">
-        <v>0.339397203011457</v>
+        <v>0.1966663333333334</v>
       </c>
       <c r="H22">
-        <v>0.339397203011457</v>
+        <v>0.5899990000000001</v>
       </c>
       <c r="I22">
-        <v>0.1715150998377012</v>
+        <v>0.08265329866371805</v>
       </c>
       <c r="J22">
-        <v>0.1715150998377012</v>
+        <v>0.1009143885347377</v>
       </c>
       <c r="K22">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L22">
         <v>1</v>
       </c>
       <c r="M22">
-        <v>5.64877581538767</v>
+        <v>5.92768</v>
       </c>
       <c r="N22">
-        <v>5.64877581538767</v>
+        <v>17.78304</v>
       </c>
       <c r="O22">
-        <v>0.07834671003081929</v>
+        <v>0.07697575721224656</v>
       </c>
       <c r="P22">
-        <v>0.07834671003081929</v>
+        <v>0.08764620478296728</v>
       </c>
       <c r="Q22">
-        <v>1.917178712181338</v>
+        <v>1.165775090773334</v>
       </c>
       <c r="R22">
-        <v>1.917178712181338</v>
+        <v>10.49197581696</v>
       </c>
       <c r="S22">
-        <v>0.0134376437928914</v>
+        <v>0.006362300250729664</v>
       </c>
       <c r="T22">
-        <v>0.0134376437928914</v>
+        <v>0.008844763163063546</v>
       </c>
     </row>
     <row r="23" spans="1:20">
@@ -1830,61 +1830,61 @@
         <v>23</v>
       </c>
       <c r="B23" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C23" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D23" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="E23">
         <v>1</v>
       </c>
       <c r="F23">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G23">
-        <v>0.339397203011457</v>
+        <v>0.1966663333333334</v>
       </c>
       <c r="H23">
-        <v>0.339397203011457</v>
+        <v>0.5899990000000001</v>
       </c>
       <c r="I23">
-        <v>0.1715150998377012</v>
+        <v>0.08265329866371805</v>
       </c>
       <c r="J23">
-        <v>0.1715150998377012</v>
+        <v>0.1009143885347377</v>
       </c>
       <c r="K23">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L23">
         <v>1</v>
       </c>
       <c r="M23">
-        <v>5.98816026829204</v>
+        <v>6.071436333333334</v>
       </c>
       <c r="N23">
-        <v>5.98816026829204</v>
+        <v>18.214309</v>
       </c>
       <c r="O23">
-        <v>0.08305386361412043</v>
+        <v>0.07884255039480526</v>
       </c>
       <c r="P23">
-        <v>0.08305386361412043</v>
+        <v>0.08977177448817772</v>
       </c>
       <c r="Q23">
-        <v>2.032364846242654</v>
+        <v>1.194047121743445</v>
       </c>
       <c r="R23">
-        <v>2.032364846242654</v>
+        <v>10.746424095691</v>
       </c>
       <c r="S23">
-        <v>0.01424499170968269</v>
+        <v>0.006516596865191081</v>
       </c>
       <c r="T23">
-        <v>0.01424499170968269</v>
+        <v>0.00905926373015282</v>
       </c>
     </row>
     <row r="24" spans="1:20">
@@ -1892,61 +1892,61 @@
         <v>23</v>
       </c>
       <c r="B24" t="s">
+        <v>26</v>
+      </c>
+      <c r="C24" t="s">
+        <v>27</v>
+      </c>
+      <c r="D24" t="s">
         <v>24</v>
       </c>
-      <c r="C24" t="s">
-        <v>25</v>
-      </c>
-      <c r="D24" t="s">
-        <v>22</v>
-      </c>
       <c r="E24">
         <v>1</v>
       </c>
       <c r="F24">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G24">
-        <v>0.339397203011457</v>
+        <v>0.1966663333333334</v>
       </c>
       <c r="H24">
-        <v>0.339397203011457</v>
+        <v>0.5899990000000001</v>
       </c>
       <c r="I24">
-        <v>0.1715150998377012</v>
+        <v>0.08265329866371805</v>
       </c>
       <c r="J24">
-        <v>0.1715150998377012</v>
+        <v>0.1009143885347377</v>
       </c>
       <c r="K24">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L24">
         <v>1</v>
       </c>
       <c r="M24">
-        <v>9.951221760547551</v>
+        <v>10.56170766666667</v>
       </c>
       <c r="N24">
-        <v>9.951221760547551</v>
+        <v>31.685123</v>
       </c>
       <c r="O24">
-        <v>0.1380202562831734</v>
+        <v>0.1371523842542203</v>
       </c>
       <c r="P24">
-        <v>0.1380202562831734</v>
+        <v>0.1561645691080663</v>
       </c>
       <c r="Q24">
-        <v>3.377416832076586</v>
+        <v>2.077132320541889</v>
       </c>
       <c r="R24">
-        <v>3.377416832076586</v>
+        <v>18.694190884877</v>
       </c>
       <c r="S24">
-        <v>0.0236725580360336</v>
+        <v>0.01133609697820509</v>
       </c>
       <c r="T24">
-        <v>0.0236725580360336</v>
+        <v>0.0157592520023313</v>
       </c>
     </row>
     <row r="25" spans="1:20">
@@ -1954,61 +1954,805 @@
         <v>23</v>
       </c>
       <c r="B25" t="s">
+        <v>26</v>
+      </c>
+      <c r="C25" t="s">
+        <v>27</v>
+      </c>
+      <c r="D25" t="s">
+        <v>25</v>
+      </c>
+      <c r="E25">
+        <v>1</v>
+      </c>
+      <c r="F25">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G25">
+        <v>0.1966663333333334</v>
+      </c>
+      <c r="H25">
+        <v>0.5899990000000001</v>
+      </c>
+      <c r="I25">
+        <v>0.08265329866371805</v>
+      </c>
+      <c r="J25">
+        <v>0.1009143885347377</v>
+      </c>
+      <c r="K25">
+        <v>2</v>
+      </c>
+      <c r="L25">
+        <v>1</v>
+      </c>
+      <c r="M25">
+        <v>17.446105</v>
+      </c>
+      <c r="N25">
+        <v>34.89221</v>
+      </c>
+      <c r="O25">
+        <v>0.2265518959828062</v>
+      </c>
+      <c r="P25">
+        <v>0.1719711468337415</v>
+      </c>
+      <c r="Q25">
+        <v>3.431061501298334</v>
+      </c>
+      <c r="R25">
+        <v>20.58636900779</v>
+      </c>
+      <c r="S25">
+        <v>0.01872526152149847</v>
+      </c>
+      <c r="T25">
+        <v>0.01735436312834462</v>
+      </c>
+    </row>
+    <row r="26" spans="1:20">
+      <c r="A26" t="s">
         <v>24</v>
       </c>
-      <c r="C25" t="s">
+      <c r="B26" t="s">
+        <v>26</v>
+      </c>
+      <c r="C26" t="s">
+        <v>27</v>
+      </c>
+      <c r="D26" t="s">
+        <v>20</v>
+      </c>
+      <c r="E26">
+        <v>3</v>
+      </c>
+      <c r="F26">
+        <v>1</v>
+      </c>
+      <c r="G26">
+        <v>0.5428536666666667</v>
+      </c>
+      <c r="H26">
+        <v>1.628561</v>
+      </c>
+      <c r="I26">
+        <v>0.2281460455442862</v>
+      </c>
+      <c r="J26">
+        <v>0.2785517221326154</v>
+      </c>
+      <c r="K26">
+        <v>2</v>
+      </c>
+      <c r="L26">
+        <v>1</v>
+      </c>
+      <c r="M26">
+        <v>10.6794795</v>
+      </c>
+      <c r="N26">
+        <v>21.358959</v>
+      </c>
+      <c r="O26">
+        <v>0.1386817475209803</v>
+      </c>
+      <c r="P26">
+        <v>0.1052706227093344</v>
+      </c>
+      <c r="Q26">
+        <v>5.7973946046665</v>
+      </c>
+      <c r="R26">
+        <v>34.784367627999</v>
+      </c>
+      <c r="S26">
+        <v>0.03163969228608277</v>
+      </c>
+      <c r="T26">
+        <v>0.0293233132456579</v>
+      </c>
+    </row>
+    <row r="27" spans="1:20">
+      <c r="A27" t="s">
+        <v>24</v>
+      </c>
+      <c r="B27" t="s">
+        <v>26</v>
+      </c>
+      <c r="C27" t="s">
+        <v>27</v>
+      </c>
+      <c r="D27" t="s">
+        <v>21</v>
+      </c>
+      <c r="E27">
+        <v>3</v>
+      </c>
+      <c r="F27">
+        <v>1</v>
+      </c>
+      <c r="G27">
+        <v>0.5428536666666667</v>
+      </c>
+      <c r="H27">
+        <v>1.628561</v>
+      </c>
+      <c r="I27">
+        <v>0.2281460455442862</v>
+      </c>
+      <c r="J27">
+        <v>0.2785517221326154</v>
+      </c>
+      <c r="K27">
+        <v>3</v>
+      </c>
+      <c r="L27">
+        <v>1</v>
+      </c>
+      <c r="M27">
+        <v>26.32069366666667</v>
+      </c>
+      <c r="N27">
+        <v>78.962081</v>
+      </c>
+      <c r="O27">
+        <v>0.3417956646349414</v>
+      </c>
+      <c r="P27">
+        <v>0.3891756820777128</v>
+      </c>
+      <c r="Q27">
+        <v>14.28828506616011</v>
+      </c>
+      <c r="R27">
+        <v>128.594565595441</v>
+      </c>
+      <c r="S27">
+        <v>0.07797932927064291</v>
+      </c>
+      <c r="T27">
+        <v>0.1084055564548821</v>
+      </c>
+    </row>
+    <row r="28" spans="1:20">
+      <c r="A28" t="s">
+        <v>24</v>
+      </c>
+      <c r="B28" t="s">
+        <v>26</v>
+      </c>
+      <c r="C28" t="s">
+        <v>27</v>
+      </c>
+      <c r="D28" t="s">
+        <v>22</v>
+      </c>
+      <c r="E28">
+        <v>3</v>
+      </c>
+      <c r="F28">
+        <v>1</v>
+      </c>
+      <c r="G28">
+        <v>0.5428536666666667</v>
+      </c>
+      <c r="H28">
+        <v>1.628561</v>
+      </c>
+      <c r="I28">
+        <v>0.2281460455442862</v>
+      </c>
+      <c r="J28">
+        <v>0.2785517221326154</v>
+      </c>
+      <c r="K28">
+        <v>3</v>
+      </c>
+      <c r="L28">
+        <v>1</v>
+      </c>
+      <c r="M28">
+        <v>5.92768</v>
+      </c>
+      <c r="N28">
+        <v>17.78304</v>
+      </c>
+      <c r="O28">
+        <v>0.07697575721224656</v>
+      </c>
+      <c r="P28">
+        <v>0.08764620478296728</v>
+      </c>
+      <c r="Q28">
+        <v>3.217862822826667</v>
+      </c>
+      <c r="R28">
+        <v>28.96076540544</v>
+      </c>
+      <c r="S28">
+        <v>0.01756171461075112</v>
+      </c>
+      <c r="T28">
+        <v>0.0244140012806834</v>
+      </c>
+    </row>
+    <row r="29" spans="1:20">
+      <c r="A29" t="s">
+        <v>24</v>
+      </c>
+      <c r="B29" t="s">
+        <v>26</v>
+      </c>
+      <c r="C29" t="s">
+        <v>27</v>
+      </c>
+      <c r="D29" t="s">
+        <v>23</v>
+      </c>
+      <c r="E29">
+        <v>3</v>
+      </c>
+      <c r="F29">
+        <v>1</v>
+      </c>
+      <c r="G29">
+        <v>0.5428536666666667</v>
+      </c>
+      <c r="H29">
+        <v>1.628561</v>
+      </c>
+      <c r="I29">
+        <v>0.2281460455442862</v>
+      </c>
+      <c r="J29">
+        <v>0.2785517221326154</v>
+      </c>
+      <c r="K29">
+        <v>3</v>
+      </c>
+      <c r="L29">
+        <v>1</v>
+      </c>
+      <c r="M29">
+        <v>6.071436333333334</v>
+      </c>
+      <c r="N29">
+        <v>18.214309</v>
+      </c>
+      <c r="O29">
+        <v>0.07884255039480526</v>
+      </c>
+      <c r="P29">
+        <v>0.08977177448817772</v>
+      </c>
+      <c r="Q29">
+        <v>3.295901475483222</v>
+      </c>
+      <c r="R29">
+        <v>29.663113279349</v>
+      </c>
+      <c r="S29">
+        <v>0.01798761609320092</v>
+      </c>
+      <c r="T29">
+        <v>0.02500608238258269</v>
+      </c>
+    </row>
+    <row r="30" spans="1:20">
+      <c r="A30" t="s">
+        <v>24</v>
+      </c>
+      <c r="B30" t="s">
+        <v>26</v>
+      </c>
+      <c r="C30" t="s">
+        <v>27</v>
+      </c>
+      <c r="D30" t="s">
+        <v>24</v>
+      </c>
+      <c r="E30">
+        <v>3</v>
+      </c>
+      <c r="F30">
+        <v>1</v>
+      </c>
+      <c r="G30">
+        <v>0.5428536666666667</v>
+      </c>
+      <c r="H30">
+        <v>1.628561</v>
+      </c>
+      <c r="I30">
+        <v>0.2281460455442862</v>
+      </c>
+      <c r="J30">
+        <v>0.2785517221326154</v>
+      </c>
+      <c r="K30">
+        <v>3</v>
+      </c>
+      <c r="L30">
+        <v>1</v>
+      </c>
+      <c r="M30">
+        <v>10.56170766666667</v>
+      </c>
+      <c r="N30">
+        <v>31.685123</v>
+      </c>
+      <c r="O30">
+        <v>0.1371523842542203</v>
+      </c>
+      <c r="P30">
+        <v>0.1561645691080663</v>
+      </c>
+      <c r="Q30">
+        <v>5.733461733111444</v>
+      </c>
+      <c r="R30">
+        <v>51.60115559800299</v>
+      </c>
+      <c r="S30">
+        <v>0.03129077410457078</v>
+      </c>
+      <c r="T30">
+        <v>0.04349990966114968</v>
+      </c>
+    </row>
+    <row r="31" spans="1:20">
+      <c r="A31" t="s">
+        <v>24</v>
+      </c>
+      <c r="B31" t="s">
+        <v>26</v>
+      </c>
+      <c r="C31" t="s">
+        <v>27</v>
+      </c>
+      <c r="D31" t="s">
         <v>25</v>
       </c>
-      <c r="D25" t="s">
+      <c r="E31">
+        <v>3</v>
+      </c>
+      <c r="F31">
+        <v>1</v>
+      </c>
+      <c r="G31">
+        <v>0.5428536666666667</v>
+      </c>
+      <c r="H31">
+        <v>1.628561</v>
+      </c>
+      <c r="I31">
+        <v>0.2281460455442862</v>
+      </c>
+      <c r="J31">
+        <v>0.2785517221326154</v>
+      </c>
+      <c r="K31">
+        <v>2</v>
+      </c>
+      <c r="L31">
+        <v>1</v>
+      </c>
+      <c r="M31">
+        <v>17.446105</v>
+      </c>
+      <c r="N31">
+        <v>34.89221</v>
+      </c>
+      <c r="O31">
+        <v>0.2265518959828062</v>
+      </c>
+      <c r="P31">
+        <v>0.1719711468337415</v>
+      </c>
+      <c r="Q31">
+        <v>9.470682068301667</v>
+      </c>
+      <c r="R31">
+        <v>56.82409240980999</v>
+      </c>
+      <c r="S31">
+        <v>0.05168691917903771</v>
+      </c>
+      <c r="T31">
+        <v>0.04790285910765956</v>
+      </c>
+    </row>
+    <row r="32" spans="1:20">
+      <c r="A32" t="s">
+        <v>25</v>
+      </c>
+      <c r="B32" t="s">
+        <v>26</v>
+      </c>
+      <c r="C32" t="s">
+        <v>27</v>
+      </c>
+      <c r="D32" t="s">
+        <v>20</v>
+      </c>
+      <c r="E32">
+        <v>2</v>
+      </c>
+      <c r="F32">
+        <v>1</v>
+      </c>
+      <c r="G32">
+        <v>0.3770265</v>
+      </c>
+      <c r="H32">
+        <v>0.754053</v>
+      </c>
+      <c r="I32">
+        <v>0.158453576575399</v>
+      </c>
+      <c r="J32">
+        <v>0.1289744515122645</v>
+      </c>
+      <c r="K32">
+        <v>2</v>
+      </c>
+      <c r="L32">
+        <v>1</v>
+      </c>
+      <c r="M32">
+        <v>10.6794795</v>
+      </c>
+      <c r="N32">
+        <v>21.358959</v>
+      </c>
+      <c r="O32">
+        <v>0.1386817475209803</v>
+      </c>
+      <c r="P32">
+        <v>0.1052706227093344</v>
+      </c>
+      <c r="Q32">
+        <v>4.02644677770675</v>
+      </c>
+      <c r="R32">
+        <v>16.105787110827</v>
+      </c>
+      <c r="S32">
+        <v>0.0219746189004258</v>
+      </c>
+      <c r="T32">
+        <v>0.01357722082429094</v>
+      </c>
+    </row>
+    <row r="33" spans="1:20">
+      <c r="A33" t="s">
+        <v>25</v>
+      </c>
+      <c r="B33" t="s">
+        <v>26</v>
+      </c>
+      <c r="C33" t="s">
+        <v>27</v>
+      </c>
+      <c r="D33" t="s">
+        <v>21</v>
+      </c>
+      <c r="E33">
+        <v>2</v>
+      </c>
+      <c r="F33">
+        <v>1</v>
+      </c>
+      <c r="G33">
+        <v>0.3770265</v>
+      </c>
+      <c r="H33">
+        <v>0.754053</v>
+      </c>
+      <c r="I33">
+        <v>0.158453576575399</v>
+      </c>
+      <c r="J33">
+        <v>0.1289744515122645</v>
+      </c>
+      <c r="K33">
+        <v>3</v>
+      </c>
+      <c r="L33">
+        <v>1</v>
+      </c>
+      <c r="M33">
+        <v>26.32069366666667</v>
+      </c>
+      <c r="N33">
+        <v>78.962081</v>
+      </c>
+      <c r="O33">
+        <v>0.3417956646349414</v>
+      </c>
+      <c r="P33">
+        <v>0.3891756820777128</v>
+      </c>
+      <c r="Q33">
+        <v>9.923599010715499</v>
+      </c>
+      <c r="R33">
+        <v>59.54159406429299</v>
+      </c>
+      <c r="S33">
+        <v>0.0541587455193721</v>
+      </c>
+      <c r="T33">
+        <v>0.05019372013788444</v>
+      </c>
+    </row>
+    <row r="34" spans="1:20">
+      <c r="A34" t="s">
+        <v>25</v>
+      </c>
+      <c r="B34" t="s">
+        <v>26</v>
+      </c>
+      <c r="C34" t="s">
+        <v>27</v>
+      </c>
+      <c r="D34" t="s">
+        <v>22</v>
+      </c>
+      <c r="E34">
+        <v>2</v>
+      </c>
+      <c r="F34">
+        <v>1</v>
+      </c>
+      <c r="G34">
+        <v>0.3770265</v>
+      </c>
+      <c r="H34">
+        <v>0.754053</v>
+      </c>
+      <c r="I34">
+        <v>0.158453576575399</v>
+      </c>
+      <c r="J34">
+        <v>0.1289744515122645</v>
+      </c>
+      <c r="K34">
+        <v>3</v>
+      </c>
+      <c r="L34">
+        <v>1</v>
+      </c>
+      <c r="M34">
+        <v>5.92768</v>
+      </c>
+      <c r="N34">
+        <v>17.78304</v>
+      </c>
+      <c r="O34">
+        <v>0.07697575721224656</v>
+      </c>
+      <c r="P34">
+        <v>0.08764620478296728</v>
+      </c>
+      <c r="Q34">
+        <v>2.23489244352</v>
+      </c>
+      <c r="R34">
+        <v>13.40935466112</v>
+      </c>
+      <c r="S34">
+        <v>0.01219708403988004</v>
+      </c>
+      <c r="T34">
+        <v>0.01130412118901482</v>
+      </c>
+    </row>
+    <row r="35" spans="1:20">
+      <c r="A35" t="s">
+        <v>25</v>
+      </c>
+      <c r="B35" t="s">
+        <v>26</v>
+      </c>
+      <c r="C35" t="s">
+        <v>27</v>
+      </c>
+      <c r="D35" t="s">
         <v>23</v>
       </c>
-      <c r="E25">
-        <v>1</v>
-      </c>
-      <c r="F25">
-        <v>1</v>
-      </c>
-      <c r="G25">
-        <v>0.339397203011457</v>
-      </c>
-      <c r="H25">
-        <v>0.339397203011457</v>
-      </c>
-      <c r="I25">
-        <v>0.1715150998377012</v>
-      </c>
-      <c r="J25">
-        <v>0.1715150998377012</v>
-      </c>
-      <c r="K25">
-        <v>1</v>
-      </c>
-      <c r="L25">
-        <v>1</v>
-      </c>
-      <c r="M25">
-        <v>15.1958908183617</v>
-      </c>
-      <c r="N25">
-        <v>15.1958908183617</v>
-      </c>
-      <c r="O25">
-        <v>0.2107621351095285</v>
-      </c>
-      <c r="P25">
-        <v>0.2107621351095285</v>
-      </c>
-      <c r="Q25">
-        <v>5.157442841019441</v>
-      </c>
-      <c r="R25">
-        <v>5.157442841019441</v>
-      </c>
-      <c r="S25">
-        <v>0.03614888864531787</v>
-      </c>
-      <c r="T25">
-        <v>0.03614888864531787</v>
+      <c r="E35">
+        <v>2</v>
+      </c>
+      <c r="F35">
+        <v>1</v>
+      </c>
+      <c r="G35">
+        <v>0.3770265</v>
+      </c>
+      <c r="H35">
+        <v>0.754053</v>
+      </c>
+      <c r="I35">
+        <v>0.158453576575399</v>
+      </c>
+      <c r="J35">
+        <v>0.1289744515122645</v>
+      </c>
+      <c r="K35">
+        <v>3</v>
+      </c>
+      <c r="L35">
+        <v>1</v>
+      </c>
+      <c r="M35">
+        <v>6.071436333333334</v>
+      </c>
+      <c r="N35">
+        <v>18.214309</v>
+      </c>
+      <c r="O35">
+        <v>0.07884255039480526</v>
+      </c>
+      <c r="P35">
+        <v>0.08977177448817772</v>
+      </c>
+      <c r="Q35">
+        <v>2.2890923907295</v>
+      </c>
+      <c r="R35">
+        <v>13.734554344377</v>
+      </c>
+      <c r="S35">
+        <v>0.01249288409638303</v>
+      </c>
+      <c r="T35">
+        <v>0.01157826537589542</v>
+      </c>
+    </row>
+    <row r="36" spans="1:20">
+      <c r="A36" t="s">
+        <v>25</v>
+      </c>
+      <c r="B36" t="s">
+        <v>26</v>
+      </c>
+      <c r="C36" t="s">
+        <v>27</v>
+      </c>
+      <c r="D36" t="s">
+        <v>24</v>
+      </c>
+      <c r="E36">
+        <v>2</v>
+      </c>
+      <c r="F36">
+        <v>1</v>
+      </c>
+      <c r="G36">
+        <v>0.3770265</v>
+      </c>
+      <c r="H36">
+        <v>0.754053</v>
+      </c>
+      <c r="I36">
+        <v>0.158453576575399</v>
+      </c>
+      <c r="J36">
+        <v>0.1289744515122645</v>
+      </c>
+      <c r="K36">
+        <v>3</v>
+      </c>
+      <c r="L36">
+        <v>1</v>
+      </c>
+      <c r="M36">
+        <v>10.56170766666667</v>
+      </c>
+      <c r="N36">
+        <v>31.685123</v>
+      </c>
+      <c r="O36">
+        <v>0.1371523842542203</v>
+      </c>
+      <c r="P36">
+        <v>0.1561645691080663</v>
+      </c>
+      <c r="Q36">
+        <v>3.982043675586499</v>
+      </c>
+      <c r="R36">
+        <v>23.892262053519</v>
+      </c>
+      <c r="S36">
+        <v>0.02173228582092464</v>
+      </c>
+      <c r="T36">
+        <v>0.02014123964636197</v>
+      </c>
+    </row>
+    <row r="37" spans="1:20">
+      <c r="A37" t="s">
+        <v>25</v>
+      </c>
+      <c r="B37" t="s">
+        <v>26</v>
+      </c>
+      <c r="C37" t="s">
+        <v>27</v>
+      </c>
+      <c r="D37" t="s">
+        <v>25</v>
+      </c>
+      <c r="E37">
+        <v>2</v>
+      </c>
+      <c r="F37">
+        <v>1</v>
+      </c>
+      <c r="G37">
+        <v>0.3770265</v>
+      </c>
+      <c r="H37">
+        <v>0.754053</v>
+      </c>
+      <c r="I37">
+        <v>0.158453576575399</v>
+      </c>
+      <c r="J37">
+        <v>0.1289744515122645</v>
+      </c>
+      <c r="K37">
+        <v>2</v>
+      </c>
+      <c r="L37">
+        <v>1</v>
+      </c>
+      <c r="M37">
+        <v>17.446105</v>
+      </c>
+      <c r="N37">
+        <v>34.89221</v>
+      </c>
+      <c r="O37">
+        <v>0.2265518959828062</v>
+      </c>
+      <c r="P37">
+        <v>0.1719711468337415</v>
+      </c>
+      <c r="Q37">
+        <v>6.5776439067825</v>
+      </c>
+      <c r="R37">
+        <v>26.31057562713</v>
+      </c>
+      <c r="S37">
+        <v>0.03589795819841343</v>
+      </c>
+      <c r="T37">
+        <v>0.02217988433881692</v>
       </c>
     </row>
   </sheetData>
